--- a/data/pca/factorExposure/factorExposure_2016-09-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.009927084746917536</v>
+        <v>0.01347430765957189</v>
       </c>
       <c r="C2">
-        <v>0.05064032601247937</v>
+        <v>0.04249205633954729</v>
       </c>
       <c r="D2">
-        <v>0.02305227366472477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06540284469832239</v>
+      </c>
+      <c r="E2">
+        <v>0.05261236580498377</v>
+      </c>
+      <c r="F2">
+        <v>-0.08513314240771466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.06012109399538958</v>
+        <v>0.03254879981793451</v>
       </c>
       <c r="C3">
-        <v>0.09835377899788086</v>
+        <v>0.07917263983372681</v>
       </c>
       <c r="D3">
-        <v>0.05543608965723331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09666673902902166</v>
+      </c>
+      <c r="E3">
+        <v>0.0647511928576191</v>
+      </c>
+      <c r="F3">
+        <v>-0.01789451123659387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06679787029559421</v>
+        <v>0.05611038200597727</v>
       </c>
       <c r="C4">
-        <v>0.05695513818295003</v>
+        <v>0.06516323520503321</v>
       </c>
       <c r="D4">
-        <v>0.01704072379617309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05933969566566229</v>
+      </c>
+      <c r="E4">
+        <v>0.0471827364387319</v>
+      </c>
+      <c r="F4">
+        <v>-0.08084893599877541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.02900050777793916</v>
+        <v>0.03265343902719003</v>
       </c>
       <c r="C6">
-        <v>0.04084752848335092</v>
+        <v>0.03627629020865523</v>
       </c>
       <c r="D6">
-        <v>0.02747628116542181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06926094483970502</v>
+      </c>
+      <c r="E6">
+        <v>0.05914629545549624</v>
+      </c>
+      <c r="F6">
+        <v>-0.07162299329310293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.02171697387348202</v>
+        <v>0.0202744151790584</v>
       </c>
       <c r="C7">
-        <v>0.04023718288541026</v>
+        <v>0.03668521937561951</v>
       </c>
       <c r="D7">
-        <v>-0.004694757019690189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04026974405321553</v>
+      </c>
+      <c r="E7">
+        <v>0.03352212692302724</v>
+      </c>
+      <c r="F7">
+        <v>-0.1079847523833028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002007865063259407</v>
+        <v>0.003957777285553693</v>
       </c>
       <c r="C8">
-        <v>0.02102559819363511</v>
+        <v>0.02753891490662691</v>
       </c>
       <c r="D8">
-        <v>0.03033387491977364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03512431027243517</v>
+      </c>
+      <c r="E8">
+        <v>0.04120849430359374</v>
+      </c>
+      <c r="F8">
+        <v>-0.05209068898081023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03174724238206508</v>
+        <v>0.03557044227279858</v>
       </c>
       <c r="C9">
-        <v>0.04126487112473907</v>
+        <v>0.05131009152219711</v>
       </c>
       <c r="D9">
-        <v>0.01239197018867037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04517083752985102</v>
+      </c>
+      <c r="E9">
+        <v>0.04107281445074491</v>
+      </c>
+      <c r="F9">
+        <v>-0.08885588322481044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07249176310270604</v>
+        <v>0.1009277083058421</v>
       </c>
       <c r="C10">
-        <v>-0.1924596635864139</v>
+        <v>-0.190450480233624</v>
       </c>
       <c r="D10">
-        <v>0.006157715542582149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>8.962711768432226e-05</v>
+      </c>
+      <c r="E10">
+        <v>0.04521717498947402</v>
+      </c>
+      <c r="F10">
+        <v>-0.03864684487411375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.04026911109967191</v>
+        <v>0.03527056450219347</v>
       </c>
       <c r="C11">
-        <v>0.05335994205994622</v>
+        <v>0.05183374133667167</v>
       </c>
       <c r="D11">
-        <v>-0.001442179787949906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03386999523001576</v>
+      </c>
+      <c r="E11">
+        <v>0.00519106519062887</v>
+      </c>
+      <c r="F11">
+        <v>-0.0637510779344659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0348991157079507</v>
+        <v>0.03598081805137081</v>
       </c>
       <c r="C12">
-        <v>0.04513568209856957</v>
+        <v>0.04769496355763368</v>
       </c>
       <c r="D12">
-        <v>-0.0001417972069518897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02605333967935031</v>
+      </c>
+      <c r="E12">
+        <v>0.0147215759477555</v>
+      </c>
+      <c r="F12">
+        <v>-0.06582004401025057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01203409992629567</v>
+        <v>0.01177845298440108</v>
       </c>
       <c r="C13">
-        <v>0.0415112633786066</v>
+        <v>0.04074974993185236</v>
       </c>
       <c r="D13">
-        <v>0.01482212757987849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06591682930683733</v>
+      </c>
+      <c r="E13">
+        <v>0.06404682481115105</v>
+      </c>
+      <c r="F13">
+        <v>-0.1138105055454895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006046036166062921</v>
+        <v>0.005409152962870627</v>
       </c>
       <c r="C14">
-        <v>0.03378106415150652</v>
+        <v>0.03021311558080344</v>
       </c>
       <c r="D14">
-        <v>-0.01794564381115675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03001985320705652</v>
+      </c>
+      <c r="E14">
+        <v>0.02832389645179846</v>
+      </c>
+      <c r="F14">
+        <v>-0.09698646879936097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001399569912884256</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00271991328557555</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00339055886258818</v>
+      </c>
+      <c r="E15">
+        <v>-8.508072101839804e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.002438554415354949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03425891856407381</v>
+        <v>0.03282602380160306</v>
       </c>
       <c r="C16">
-        <v>0.04166110866510058</v>
+        <v>0.04607960834276871</v>
       </c>
       <c r="D16">
-        <v>0.004153119460203587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02908001613519279</v>
+      </c>
+      <c r="E16">
+        <v>0.01950917423444167</v>
+      </c>
+      <c r="F16">
+        <v>-0.06783064728660397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02364325665043533</v>
+        <v>0.01609070425791691</v>
       </c>
       <c r="C19">
-        <v>0.05945352326875526</v>
+        <v>0.0501586000660742</v>
       </c>
       <c r="D19">
-        <v>0.0689333715306807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.101559262818341</v>
+      </c>
+      <c r="E19">
+        <v>0.08182352219292512</v>
+      </c>
+      <c r="F19">
+        <v>-0.09349156684989982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01389858780458465</v>
+        <v>0.01308129807899775</v>
       </c>
       <c r="C20">
-        <v>0.04476316867199806</v>
+        <v>0.04052504769469897</v>
       </c>
       <c r="D20">
-        <v>0.01460910733273576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04188939607923097</v>
+      </c>
+      <c r="E20">
+        <v>0.05578375811666691</v>
+      </c>
+      <c r="F20">
+        <v>-0.08804532811711925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.008263826967686239</v>
+        <v>0.007469800217055496</v>
       </c>
       <c r="C21">
-        <v>0.05015577713982856</v>
+        <v>0.04502430571932536</v>
       </c>
       <c r="D21">
-        <v>0.03445540879576016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.07272954730267676</v>
+      </c>
+      <c r="E21">
+        <v>0.07334075881603057</v>
+      </c>
+      <c r="F21">
+        <v>-0.1333344902046405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0003816569037249589</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02334143609228697</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03337822301553355</v>
+      </c>
+      <c r="E22">
+        <v>0.01587425643926983</v>
+      </c>
+      <c r="F22">
+        <v>-0.01401409277729171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0003138866889533232</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02347060202729976</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03307392993450124</v>
+      </c>
+      <c r="E23">
+        <v>0.01616422923280474</v>
+      </c>
+      <c r="F23">
+        <v>-0.01388128914766581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02927324931759421</v>
+        <v>0.03188937836170305</v>
       </c>
       <c r="C24">
-        <v>0.04636615604327129</v>
+        <v>0.05348664616761618</v>
       </c>
       <c r="D24">
-        <v>-0.0005027802234035545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02739394852074935</v>
+      </c>
+      <c r="E24">
+        <v>0.01679789867095751</v>
+      </c>
+      <c r="F24">
+        <v>-0.07544659925385369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04583969604303052</v>
+        <v>0.04228745917266752</v>
       </c>
       <c r="C25">
-        <v>0.05667595420956275</v>
+        <v>0.05835482893180731</v>
       </c>
       <c r="D25">
-        <v>-0.01065769471222566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02484573856368659</v>
+      </c>
+      <c r="E25">
+        <v>0.01234441689657591</v>
+      </c>
+      <c r="F25">
+        <v>-0.07831103738522975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01127263531431453</v>
+        <v>0.01349345422703617</v>
       </c>
       <c r="C26">
-        <v>0.01727601515071452</v>
+        <v>0.01589005032166662</v>
       </c>
       <c r="D26">
-        <v>0.0025967482231271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02666440965248854</v>
+      </c>
+      <c r="E26">
+        <v>0.02907675554016596</v>
+      </c>
+      <c r="F26">
+        <v>-0.07302040940444988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08449020088477056</v>
+        <v>0.1351580469539118</v>
       </c>
       <c r="C28">
-        <v>-0.2179856816485736</v>
+        <v>-0.2396347447914779</v>
       </c>
       <c r="D28">
-        <v>0.001426071328527296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01590867257950614</v>
+      </c>
+      <c r="E28">
+        <v>0.04858542164609425</v>
+      </c>
+      <c r="F28">
+        <v>-0.05269005621855032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01136219919241964</v>
+        <v>0.005949587931867473</v>
       </c>
       <c r="C29">
-        <v>0.02668326236585174</v>
+        <v>0.02596579971855932</v>
       </c>
       <c r="D29">
-        <v>-0.01725999960029378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02368443167093432</v>
+      </c>
+      <c r="E29">
+        <v>0.02969790539048283</v>
+      </c>
+      <c r="F29">
+        <v>-0.08849297696502294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05168160890010864</v>
+        <v>0.03973081622863903</v>
       </c>
       <c r="C30">
-        <v>0.06034409295244202</v>
+        <v>0.06513552995131924</v>
       </c>
       <c r="D30">
-        <v>0.03576012063285401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.107197859909536</v>
+      </c>
+      <c r="E30">
+        <v>0.03889054504192881</v>
+      </c>
+      <c r="F30">
+        <v>-0.1016127210142629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04270868569057794</v>
+        <v>0.05398662719140544</v>
       </c>
       <c r="C31">
-        <v>0.03181577600036148</v>
+        <v>0.05303976411703264</v>
       </c>
       <c r="D31">
-        <v>-0.01192953676476852</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006538559419122714</v>
+      </c>
+      <c r="E31">
+        <v>0.04926014348428397</v>
+      </c>
+      <c r="F31">
+        <v>-0.08054198318439552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.001106267155516846</v>
+        <v>0.0040247123842638</v>
       </c>
       <c r="C32">
-        <v>0.04717098929004161</v>
+        <v>0.03348420148459965</v>
       </c>
       <c r="D32">
-        <v>0.0147657052666458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04869684436394547</v>
+      </c>
+      <c r="E32">
+        <v>0.02251584326701691</v>
+      </c>
+      <c r="F32">
+        <v>-0.0687499031446392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02645359399393817</v>
+        <v>0.02399180082815367</v>
       </c>
       <c r="C33">
-        <v>0.05983674742276742</v>
+        <v>0.05406346173619123</v>
       </c>
       <c r="D33">
-        <v>0.0208251142740131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08311024888129498</v>
+      </c>
+      <c r="E33">
+        <v>0.050671305906196</v>
+      </c>
+      <c r="F33">
+        <v>-0.1277580949030703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.05106773893463236</v>
+        <v>0.04052983581161391</v>
       </c>
       <c r="C34">
-        <v>0.05462941871885128</v>
+        <v>0.06416094978131055</v>
       </c>
       <c r="D34">
-        <v>-0.0124354791094834</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03449258258318339</v>
+      </c>
+      <c r="E34">
+        <v>-0.006100440009537857</v>
+      </c>
+      <c r="F34">
+        <v>-0.07355599069419141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.008531174664411861</v>
+        <v>0.01366654852444575</v>
       </c>
       <c r="C36">
-        <v>0.01352576656270875</v>
+        <v>0.01177727466582666</v>
       </c>
       <c r="D36">
-        <v>0.002194855112644806</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02919025666304933</v>
+      </c>
+      <c r="E36">
+        <v>0.03559029750374344</v>
+      </c>
+      <c r="F36">
+        <v>-0.08189568267445627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03184506608204492</v>
+        <v>0.02523896998917547</v>
       </c>
       <c r="C38">
-        <v>0.02930968526892573</v>
+        <v>0.02553727744412304</v>
       </c>
       <c r="D38">
-        <v>-0.0003837599031667879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0282338236171581</v>
+      </c>
+      <c r="E38">
+        <v>0.03470223944382093</v>
+      </c>
+      <c r="F38">
+        <v>-0.0664976323528243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04057716317420971</v>
+        <v>0.03764548100002434</v>
       </c>
       <c r="C39">
-        <v>0.0700408998847037</v>
+        <v>0.06865595630166367</v>
       </c>
       <c r="D39">
-        <v>0.02002657257332655</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05266620002243022</v>
+      </c>
+      <c r="E39">
+        <v>0.01838960367714867</v>
+      </c>
+      <c r="F39">
+        <v>-0.0897772715634685</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01858308530100203</v>
+        <v>0.01598933895755384</v>
       </c>
       <c r="C40">
-        <v>0.02837873380926606</v>
+        <v>0.0367363126995936</v>
       </c>
       <c r="D40">
-        <v>0.03463586372166774</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.04188084947862372</v>
+      </c>
+      <c r="E40">
+        <v>0.07168568754170762</v>
+      </c>
+      <c r="F40">
+        <v>-0.08646610618798299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01009338472016036</v>
+        <v>0.01807906480678105</v>
       </c>
       <c r="C41">
-        <v>0.005616341213048004</v>
+        <v>0.005643948953120323</v>
       </c>
       <c r="D41">
-        <v>-0.001266448560416322</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0190189031949901</v>
+      </c>
+      <c r="E41">
+        <v>0.03802105490450642</v>
+      </c>
+      <c r="F41">
+        <v>-0.07095105533950258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.002358919473661982</v>
+        <v>0.001221140321695711</v>
       </c>
       <c r="C42">
-        <v>0.006230564051285498</v>
+        <v>0.003276101344084073</v>
       </c>
       <c r="D42">
-        <v>0.007769674878281441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0003107555933413743</v>
+      </c>
+      <c r="E42">
+        <v>0.007221042203190416</v>
+      </c>
+      <c r="F42">
+        <v>0.005716783042485117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03156346737935828</v>
+        <v>0.02971457696565685</v>
       </c>
       <c r="C43">
-        <v>0.02012171824613935</v>
+        <v>0.0205015033262904</v>
       </c>
       <c r="D43">
-        <v>0.005519534867107729</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04269696837938566</v>
+      </c>
+      <c r="E43">
+        <v>0.04335908678626601</v>
+      </c>
+      <c r="F43">
+        <v>-0.08331723897825244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01960057275922625</v>
+        <v>0.01489745793472366</v>
       </c>
       <c r="C44">
-        <v>0.05841082720343335</v>
+        <v>0.05188429597904787</v>
       </c>
       <c r="D44">
-        <v>0.01643499207388192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04245374141321911</v>
+      </c>
+      <c r="E44">
+        <v>0.05838633824026336</v>
+      </c>
+      <c r="F44">
+        <v>-0.09036190095441154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0007327670164839883</v>
+        <v>0.007306806735209041</v>
       </c>
       <c r="C46">
-        <v>0.02295112647156284</v>
+        <v>0.02488830850375643</v>
       </c>
       <c r="D46">
-        <v>-0.01665259886478408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01469943385172119</v>
+      </c>
+      <c r="E46">
+        <v>0.03536446875270407</v>
+      </c>
+      <c r="F46">
+        <v>-0.1023115986841015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07918000029594266</v>
+        <v>0.08656956654481737</v>
       </c>
       <c r="C47">
-        <v>0.0709710804921405</v>
+        <v>0.07971042057743312</v>
       </c>
       <c r="D47">
-        <v>-0.002712022668326642</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01518161211851677</v>
+      </c>
+      <c r="E47">
+        <v>0.05656373347134022</v>
+      </c>
+      <c r="F47">
+        <v>-0.08028056817384774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01927357032607994</v>
+        <v>0.01586946756156663</v>
       </c>
       <c r="C48">
-        <v>0.01252053410171784</v>
+        <v>0.01728488977181388</v>
       </c>
       <c r="D48">
-        <v>-0.005053529004426217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01920779968414453</v>
+      </c>
+      <c r="E48">
+        <v>0.04606299093056203</v>
+      </c>
+      <c r="F48">
+        <v>-0.09547406407531174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08623304400639059</v>
+        <v>0.07258686893415106</v>
       </c>
       <c r="C50">
-        <v>0.06700393728151717</v>
+        <v>0.06992138838329408</v>
       </c>
       <c r="D50">
-        <v>-0.01326180565998768</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.003325701285659615</v>
+      </c>
+      <c r="E50">
+        <v>0.05242789015048176</v>
+      </c>
+      <c r="F50">
+        <v>-0.06742911564481617</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01209529323350856</v>
+        <v>0.01030553231788649</v>
       </c>
       <c r="C51">
-        <v>0.04640844991444455</v>
+        <v>0.03328111674559002</v>
       </c>
       <c r="D51">
-        <v>0.001564509328064442</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04883095571825048</v>
+      </c>
+      <c r="E51">
+        <v>0.02086779240122006</v>
+      </c>
+      <c r="F51">
+        <v>-0.08421375931226119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.09481770977600078</v>
+        <v>0.09219782249923048</v>
       </c>
       <c r="C53">
-        <v>0.07545952079027378</v>
+        <v>0.08882203780805509</v>
       </c>
       <c r="D53">
-        <v>-0.03589127052092403</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03954674805123408</v>
+      </c>
+      <c r="E53">
+        <v>0.05313326087756801</v>
+      </c>
+      <c r="F53">
+        <v>-0.08826677363492358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02815103301385054</v>
+        <v>0.02765807081862214</v>
       </c>
       <c r="C54">
-        <v>0.0203402384301957</v>
+        <v>0.02687831471948965</v>
       </c>
       <c r="D54">
-        <v>0.002392097006057185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03276930356898573</v>
+      </c>
+      <c r="E54">
+        <v>0.04034378506971421</v>
+      </c>
+      <c r="F54">
+        <v>-0.09407122707954485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07563047505682188</v>
+        <v>0.08298107242823194</v>
       </c>
       <c r="C55">
-        <v>0.06760352079798834</v>
+        <v>0.07234256934192271</v>
       </c>
       <c r="D55">
-        <v>-0.03328696899519477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04706456254194064</v>
+      </c>
+      <c r="E55">
+        <v>0.04318150528736252</v>
+      </c>
+      <c r="F55">
+        <v>-0.06406573535111899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1525759486854073</v>
+        <v>0.1455803090967041</v>
       </c>
       <c r="C56">
-        <v>0.0903865866438643</v>
+        <v>0.1067202234584414</v>
       </c>
       <c r="D56">
-        <v>-0.02890793988359705</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05075654448416766</v>
+      </c>
+      <c r="E56">
+        <v>0.04882895477060379</v>
+      </c>
+      <c r="F56">
+        <v>-0.05296245053704856</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.00233084459081605</v>
+        <v>0.0009025690510628201</v>
       </c>
       <c r="C57">
-        <v>0.005134116271841301</v>
+        <v>0.002775216323696579</v>
       </c>
       <c r="D57">
-        <v>0.01412761992343981</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01368683361136265</v>
+      </c>
+      <c r="E57">
+        <v>0.006436383474867794</v>
+      </c>
+      <c r="F57">
+        <v>-0.01212772802696882</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07777060547714783</v>
+        <v>0.0297229821007452</v>
       </c>
       <c r="C58">
-        <v>0.02948928782314561</v>
+        <v>0.03764517456123356</v>
       </c>
       <c r="D58">
-        <v>0.9641178941268675</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4940858028792843</v>
+      </c>
+      <c r="E58">
+        <v>0.6792639732020229</v>
+      </c>
+      <c r="F58">
+        <v>0.4587001231631194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.132124167199455</v>
+        <v>0.1480913496179536</v>
       </c>
       <c r="C59">
-        <v>-0.2040875788111698</v>
+        <v>-0.1859869339997332</v>
       </c>
       <c r="D59">
-        <v>0.02233399441770271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03071769006392304</v>
+      </c>
+      <c r="E59">
+        <v>0.02613430479212179</v>
+      </c>
+      <c r="F59">
+        <v>-0.02169077541636272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3152332007024236</v>
+        <v>0.2791279918874541</v>
       </c>
       <c r="C60">
-        <v>0.08693073921998661</v>
+        <v>0.09794647341499831</v>
       </c>
       <c r="D60">
-        <v>-0.02321204117286691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2058388734603714</v>
+      </c>
+      <c r="E60">
+        <v>-0.2802992422861756</v>
+      </c>
+      <c r="F60">
+        <v>0.1238939715491292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03662034320010731</v>
+        <v>0.03933814169727569</v>
       </c>
       <c r="C61">
-        <v>0.06265365187271148</v>
+        <v>0.06143744958844728</v>
       </c>
       <c r="D61">
-        <v>0.01066032692287822</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04711680719430471</v>
+      </c>
+      <c r="E61">
+        <v>0.02250696032131478</v>
+      </c>
+      <c r="F61">
+        <v>-0.08040906494472216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01283403093098791</v>
+        <v>0.01480259364851838</v>
       </c>
       <c r="C63">
-        <v>0.03713124612044281</v>
+        <v>0.03162959677320595</v>
       </c>
       <c r="D63">
-        <v>-0.005279000026035004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02284484570497618</v>
+      </c>
+      <c r="E63">
+        <v>0.03748476893509111</v>
+      </c>
+      <c r="F63">
+        <v>-0.0749993517730107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05097444535889092</v>
+        <v>0.05518816794893714</v>
       </c>
       <c r="C64">
-        <v>0.0300187781572684</v>
+        <v>0.05358635283882455</v>
       </c>
       <c r="D64">
-        <v>-0.006653513564288612</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.01019356049976402</v>
+      </c>
+      <c r="E64">
+        <v>0.02373848174483209</v>
+      </c>
+      <c r="F64">
+        <v>-0.08833884482644357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09199566914980263</v>
+        <v>0.06589963586290241</v>
       </c>
       <c r="C65">
-        <v>0.04310200109413753</v>
+        <v>0.03945571509866348</v>
       </c>
       <c r="D65">
-        <v>0.03414445211014138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0861101285035263</v>
+      </c>
+      <c r="E65">
+        <v>0.03184848080973444</v>
+      </c>
+      <c r="F65">
+        <v>-0.0246712988840098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06432194227554318</v>
+        <v>0.05008674740079946</v>
       </c>
       <c r="C66">
-        <v>0.1042407037712007</v>
+        <v>0.09168345914688876</v>
       </c>
       <c r="D66">
-        <v>0.02479063517102372</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07934353603480734</v>
+      </c>
+      <c r="E66">
+        <v>0.02033612068538862</v>
+      </c>
+      <c r="F66">
+        <v>-0.09143492608925989</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05692345453001169</v>
+        <v>0.0479492151050144</v>
       </c>
       <c r="C67">
-        <v>0.03359718915174047</v>
+        <v>0.03158330684313956</v>
       </c>
       <c r="D67">
-        <v>-0.007766381932488083</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01493704634914797</v>
+      </c>
+      <c r="E67">
+        <v>0.01977424991128339</v>
+      </c>
+      <c r="F67">
+        <v>-0.05310111404195166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1120149301243545</v>
+        <v>0.1531060198849425</v>
       </c>
       <c r="C68">
-        <v>-0.2880746508198145</v>
+        <v>-0.2519536505742628</v>
       </c>
       <c r="D68">
-        <v>0.003306335768012966</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01793094488301587</v>
+      </c>
+      <c r="E68">
+        <v>0.04098073662397353</v>
+      </c>
+      <c r="F68">
+        <v>-0.01890553666886068</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0873021575411128</v>
+        <v>0.08667770171179075</v>
       </c>
       <c r="C69">
-        <v>0.06524427097549247</v>
+        <v>0.08564549298542849</v>
       </c>
       <c r="D69">
-        <v>-0.03105663937409613</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009451007928470931</v>
+      </c>
+      <c r="E69">
+        <v>0.03088640316659519</v>
+      </c>
+      <c r="F69">
+        <v>-0.09637089708738615</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.119416316662406</v>
+        <v>0.1452948073954531</v>
       </c>
       <c r="C71">
-        <v>-0.2494110860224784</v>
+        <v>-0.2305543272197207</v>
       </c>
       <c r="D71">
-        <v>0.01837236848408441</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01483691419374835</v>
+      </c>
+      <c r="E71">
+        <v>0.05992616812893849</v>
+      </c>
+      <c r="F71">
+        <v>-0.05650388523186607</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08158484012881292</v>
+        <v>0.09507988861327765</v>
       </c>
       <c r="C72">
-        <v>0.04901880411931084</v>
+        <v>0.05764202515273305</v>
       </c>
       <c r="D72">
-        <v>-0.0192010915329644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02030129314287576</v>
+      </c>
+      <c r="E72">
+        <v>0.009481051588029593</v>
+      </c>
+      <c r="F72">
+        <v>-0.08024932056398772</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4316114994144186</v>
+        <v>0.3452700447484258</v>
       </c>
       <c r="C73">
-        <v>0.05521228004814515</v>
+        <v>0.07917870321416609</v>
       </c>
       <c r="D73">
-        <v>0.02575859400682745</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4290201371630815</v>
+      </c>
+      <c r="E73">
+        <v>-0.4886394323595941</v>
+      </c>
+      <c r="F73">
+        <v>0.2885257233358525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1206403755308837</v>
+        <v>0.1119588981166985</v>
       </c>
       <c r="C74">
-        <v>0.1128622593605616</v>
+        <v>0.1009522724186978</v>
       </c>
       <c r="D74">
-        <v>-0.01123174433450682</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02891642973713751</v>
+      </c>
+      <c r="E74">
+        <v>0.06547391570177404</v>
+      </c>
+      <c r="F74">
+        <v>-0.05922846848582371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2634433297094795</v>
+        <v>0.2578731380198203</v>
       </c>
       <c r="C75">
-        <v>0.1176675447609055</v>
+        <v>0.1388097502860591</v>
       </c>
       <c r="D75">
-        <v>-0.04862756059659806</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1272569815412314</v>
+      </c>
+      <c r="E75">
+        <v>0.07861516019404395</v>
+      </c>
+      <c r="F75">
+        <v>-0.02769469303750154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1213607334962236</v>
+        <v>0.1287369295196506</v>
       </c>
       <c r="C76">
-        <v>0.101898269164497</v>
+        <v>0.1055268095581001</v>
       </c>
       <c r="D76">
-        <v>-0.03157231971920837</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05988339408082397</v>
+      </c>
+      <c r="E76">
+        <v>0.06856356817108536</v>
+      </c>
+      <c r="F76">
+        <v>-0.06948886342557521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07565235551093891</v>
+        <v>0.06200350128217258</v>
       </c>
       <c r="C77">
-        <v>0.05749959398680223</v>
+        <v>0.06701808306965083</v>
       </c>
       <c r="D77">
-        <v>0.04324673834145971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06492049955071369</v>
+      </c>
+      <c r="E77">
+        <v>0.06889419724212686</v>
+      </c>
+      <c r="F77">
+        <v>-0.1162648859191172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04446852143118591</v>
+        <v>0.04275712153486537</v>
       </c>
       <c r="C78">
-        <v>0.04127589688297357</v>
+        <v>0.05401996754064123</v>
       </c>
       <c r="D78">
-        <v>0.01422343646018725</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07276343473772788</v>
+      </c>
+      <c r="E78">
+        <v>0.02249884039154171</v>
+      </c>
+      <c r="F78">
+        <v>-0.1032985383637105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02121435869810831</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03798487143103024</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05934623936692827</v>
+      </c>
+      <c r="E79">
+        <v>0.04824410007356587</v>
+      </c>
+      <c r="F79">
+        <v>-0.03554031929910843</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04668796559407994</v>
+        <v>0.03411464865229918</v>
       </c>
       <c r="C80">
-        <v>0.05264186258763855</v>
+        <v>0.0535481701779808</v>
       </c>
       <c r="D80">
-        <v>0.02646674289041221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04688499231578539</v>
+      </c>
+      <c r="E80">
+        <v>0.009021092921260472</v>
+      </c>
+      <c r="F80">
+        <v>-0.03255426923267559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1423844613442946</v>
+        <v>0.1404746410748396</v>
       </c>
       <c r="C81">
-        <v>0.07818232224353726</v>
+        <v>0.09830713551076957</v>
       </c>
       <c r="D81">
-        <v>-0.02183014235156587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09557150318164027</v>
+      </c>
+      <c r="E81">
+        <v>0.08202419208554347</v>
+      </c>
+      <c r="F81">
+        <v>-0.02598103334746725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.07220696405212707</v>
+        <v>0.1934012286592953</v>
       </c>
       <c r="C82">
-        <v>0.04918451555733026</v>
+        <v>0.1392664400169672</v>
       </c>
       <c r="D82">
-        <v>-0.02975268672845218</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2236695556955253</v>
+      </c>
+      <c r="E82">
+        <v>0.01181412809365469</v>
+      </c>
+      <c r="F82">
+        <v>-0.07525202621723968</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02709783119832021</v>
+        <v>0.02701038620903998</v>
       </c>
       <c r="C83">
-        <v>0.01813607236309052</v>
+        <v>0.03789428404277366</v>
       </c>
       <c r="D83">
-        <v>0.01630357753991432</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03599252149816855</v>
+      </c>
+      <c r="E83">
+        <v>0.008491426643048302</v>
+      </c>
+      <c r="F83">
+        <v>-0.05039417050694862</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2396879571447723</v>
+        <v>0.2057920786782232</v>
       </c>
       <c r="C85">
-        <v>0.113606199705699</v>
+        <v>0.1260836766551078</v>
       </c>
       <c r="D85">
-        <v>-0.1157027049479766</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1084467805115602</v>
+      </c>
+      <c r="E85">
+        <v>0.003253709700034827</v>
+      </c>
+      <c r="F85">
+        <v>0.01212326301311346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.005290306929408882</v>
+        <v>0.01136383645354508</v>
       </c>
       <c r="C86">
-        <v>0.02314441397864827</v>
+        <v>0.03018931796050652</v>
       </c>
       <c r="D86">
-        <v>0.02141562244831081</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.073648118864502</v>
+      </c>
+      <c r="E86">
+        <v>0.0450017250115787</v>
+      </c>
+      <c r="F86">
+        <v>-0.1389735251091674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01907108213063834</v>
+        <v>0.01967556652792077</v>
       </c>
       <c r="C87">
-        <v>0.01863058132000804</v>
+        <v>0.020938437860172</v>
       </c>
       <c r="D87">
-        <v>0.09185231007723089</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0914914279447579</v>
+      </c>
+      <c r="E87">
+        <v>0.08350247661234587</v>
+      </c>
+      <c r="F87">
+        <v>-0.09343302118576131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1052136481821832</v>
+        <v>0.0903047744625413</v>
       </c>
       <c r="C88">
-        <v>0.06810794037462085</v>
+        <v>0.06317140752750283</v>
       </c>
       <c r="D88">
-        <v>-0.01233117604140481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01407836931604517</v>
+      </c>
+      <c r="E88">
+        <v>0.032298173336802</v>
+      </c>
+      <c r="F88">
+        <v>-0.06843756888285614</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1857385459433905</v>
+        <v>0.2258516262971559</v>
       </c>
       <c r="C89">
-        <v>-0.3798696725914075</v>
+        <v>-0.3813768842908399</v>
       </c>
       <c r="D89">
-        <v>-0.02871279323671097</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0144114533333342</v>
+      </c>
+      <c r="E89">
+        <v>0.03761172115214534</v>
+      </c>
+      <c r="F89">
+        <v>-0.1006988327239712</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1729620459441913</v>
+        <v>0.2034640878991842</v>
       </c>
       <c r="C90">
-        <v>-0.3462550143348425</v>
+        <v>-0.3159993147446646</v>
       </c>
       <c r="D90">
-        <v>0.002318941038787479</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01174632463262257</v>
+      </c>
+      <c r="E90">
+        <v>0.06345402564833581</v>
+      </c>
+      <c r="F90">
+        <v>-0.04931839384811004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.2054268686628943</v>
+        <v>0.191089408210611</v>
       </c>
       <c r="C91">
-        <v>0.1089309688896284</v>
+        <v>0.1389496815871601</v>
       </c>
       <c r="D91">
-        <v>-0.04712173685422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1022751135421471</v>
+      </c>
+      <c r="E91">
+        <v>0.0738761374444319</v>
+      </c>
+      <c r="F91">
+        <v>-0.0478783508997319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1662889268825864</v>
+        <v>0.185090035679468</v>
       </c>
       <c r="C92">
-        <v>-0.2884333909987781</v>
+        <v>-0.2774157664432444</v>
       </c>
       <c r="D92">
-        <v>-0.01193867252781467</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.0049322604879836</v>
+      </c>
+      <c r="E92">
+        <v>0.06942744110346409</v>
+      </c>
+      <c r="F92">
+        <v>-0.06972125090960396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1977981817996198</v>
+        <v>0.2285685448298969</v>
       </c>
       <c r="C93">
-        <v>-0.3450106621926887</v>
+        <v>-0.3197396324014617</v>
       </c>
       <c r="D93">
-        <v>0.007610777972834033</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.001961658059773033</v>
+      </c>
+      <c r="E93">
+        <v>0.05076057558501583</v>
+      </c>
+      <c r="F93">
+        <v>-0.04516052776633084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3004627463590291</v>
+        <v>0.3410616870353065</v>
       </c>
       <c r="C94">
-        <v>0.1701328522297377</v>
+        <v>0.1916782283604628</v>
       </c>
       <c r="D94">
-        <v>-0.08418672155180303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.468999822304333</v>
+      </c>
+      <c r="E94">
+        <v>0.1495632654362483</v>
+      </c>
+      <c r="F94">
+        <v>0.4493929377064265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09537306839022139</v>
+        <v>0.08187380935338694</v>
       </c>
       <c r="C95">
-        <v>0.0697607843532406</v>
+        <v>0.07220524552675149</v>
       </c>
       <c r="D95">
-        <v>0.02857050695932995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1539671409833256</v>
+      </c>
+      <c r="E95">
+        <v>-0.1381471902544798</v>
+      </c>
+      <c r="F95">
+        <v>-0.1881918516251086</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2042142062297355</v>
+        <v>0.1885892849615936</v>
       </c>
       <c r="C98">
-        <v>0.01337934022458699</v>
+        <v>0.04123290043006379</v>
       </c>
       <c r="D98">
-        <v>0.02064106700891347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1754141217040948</v>
+      </c>
+      <c r="E98">
+        <v>-0.1554019156944127</v>
+      </c>
+      <c r="F98">
+        <v>0.03699685016724759</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01107524901372168</v>
+        <v>0.00582734365179297</v>
       </c>
       <c r="C101">
-        <v>0.02682814285048664</v>
+        <v>0.02571483138215794</v>
       </c>
       <c r="D101">
-        <v>-0.01734686815633946</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02302881094862946</v>
+      </c>
+      <c r="E101">
+        <v>0.03016919671702147</v>
+      </c>
+      <c r="F101">
+        <v>-0.08800440838489684</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1225132774067134</v>
+        <v>0.1228333445024831</v>
       </c>
       <c r="C102">
-        <v>0.07228468099539032</v>
+        <v>0.1005788358519334</v>
       </c>
       <c r="D102">
-        <v>-0.04271000601867363</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05107218436760937</v>
+      </c>
+      <c r="E102">
+        <v>-0.008439160842503714</v>
+      </c>
+      <c r="F102">
+        <v>-0.04115173829421397</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
